--- a/연보/연보2/1201/손익계산서_final_전수.xlsx
+++ b/연보/연보2/1201/손익계산서_final_전수.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Project\macro\rm\연보\연보2\1130\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Project\macro\rm\연보\연보2\1201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5E2835-7B7F-4B4E-A728-7A5D31B94971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EFDABC-101F-4229-88F7-E3F272DE994E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1620" windowWidth="19380" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47007,7 +47007,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47024,6 +47024,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -47065,11 +47074,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -47379,7 +47389,7 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15659</v>
       </c>
       <c r="B1" s="1" t="s">
